--- a/Public/Images/FunOfHeuristic_userslist.xlsx
+++ b/Public/Images/FunOfHeuristic_userslist.xlsx
@@ -228,7 +228,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
